--- a/biology/Botanique/Nerprun/Nerprun.xlsx
+++ b/biology/Botanique/Nerprun/Nerprun.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rhamnus
 Rhamnus (Les nerpruns) est un genre (ou deux genres, si Frangula est traité comme un genre distinct) de plantes à fleurs de la famille des Rhamnaceae. Il compte environ 100 espèces d'arbustes ou de petits arbres de 1 à 10 m de haut (rarement à 15 m) indigènes des régions tempérées et subtropicales de l'hémisphère nord, et localement en Afrique et en Amérique du Sud.
@@ -514,7 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Flore de France
+          <t>Flore de France</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Rhamnus alaternus L. — nerprun alaterne.
 Rhamnus alpina L. — nerprun des Alpes.
 Rhamnus cathartica L. — nerprun purgatif.
@@ -529,8 +547,43 @@
 Rhamnus × lemaniana Briq.
 Rhamnus × mercieri Briq.
  Source : Tela-Botanica  
-Autre liste
-Selon ITIS :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Nerprun</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nerprun</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Différentes espèces</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Autre liste</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon ITIS :
 Rhamnus crocea ssp. insula (Kellogg) C.B. Wolf.
 Rhamnus alnifolia L'Hér.
 Rhamnus arguta Maxim.
@@ -548,38 +601,6 @@
 Rhamnus smithii Greene.
 Rhamnus sphaerosperma Sw.
 Rhamnus utilis Dcne.
-Autre
-Rhamnus prinoides</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Nerprun</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Nerprun</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Plante hôte</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les nerpruns sont la plante hôte des chenilles de plusieurs lépidoptères, par exemple le Citron (Gonepteryx rhamni), le Citron de Provence (Gonepteryx cleopatra), la Farineuse (Gonepteryx farinosa), la Thècle des nerpruns (Satyrium spini), la Thècle de la ronce (Callophrys rubi), l'Azuré des nerpruns (Celastrina argiolus), le Pacha à deux queues (Charaxes jasius), la Feuille-morte du chêne (Gastropacha quercifolia), la Phalène du marronnier (Alsophila aescularia), Eupoecilia ambiguella, la Lithosie complanule (Eilema lurideola), Actias selene (qui est un papillon d'élevage en Europe), Hemileuca eglanterina, Lycia hirtaria, Odonestis pruni, Papilio eurymedon, Saturnia atlantica et Saturnia pavonia[1],[2].
 </t>
         </is>
       </c>
@@ -605,13 +626,84 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Différentes espèces</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Autre</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Rhamnus prinoides</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Nerprun</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nerprun</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Plante hôte</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les nerpruns sont la plante hôte des chenilles de plusieurs lépidoptères, par exemple le Citron (Gonepteryx rhamni), le Citron de Provence (Gonepteryx cleopatra), la Farineuse (Gonepteryx farinosa), la Thècle des nerpruns (Satyrium spini), la Thècle de la ronce (Callophrys rubi), l'Azuré des nerpruns (Celastrina argiolus), le Pacha à deux queues (Charaxes jasius), la Feuille-morte du chêne (Gastropacha quercifolia), la Phalène du marronnier (Alsophila aescularia), Eupoecilia ambiguella, la Lithosie complanule (Eilema lurideola), Actias selene (qui est un papillon d'élevage en Europe), Hemileuca eglanterina, Lycia hirtaria, Odonestis pruni, Papilio eurymedon, Saturnia atlantica et Saturnia pavonia,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Nerprun</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nerprun</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Usage</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On extrayait autrefois de la baie du nerprun des teinturiers et de plusieurs autres variétés cultivées autour de la Méditerranée des matières colorantes jaunes, jaune-vertes et brunes, base des couleurs pour les artistes connues comme stil de grain et vert de vessie[3]. Ces colorants ont été remplacés, tant dans la teinture que dans les beaux-arts, par des produits synthétiques plus durables.
-Le nerprun voit son nom attribué au 18e jour du mois de fructidor du calendrier républicain français[4], généralement chaque 4 septembre du calendrier grégorien.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On extrayait autrefois de la baie du nerprun des teinturiers et de plusieurs autres variétés cultivées autour de la Méditerranée des matières colorantes jaunes, jaune-vertes et brunes, base des couleurs pour les artistes connues comme stil de grain et vert de vessie. Ces colorants ont été remplacés, tant dans la teinture que dans les beaux-arts, par des produits synthétiques plus durables.
+Le nerprun voit son nom attribué au 18e jour du mois de fructidor du calendrier républicain français, généralement chaque 4 septembre du calendrier grégorien.
 </t>
         </is>
       </c>
